--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_500.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>89.294</v>
+        <v>58.474</v>
       </c>
       <c r="D2" t="n">
-        <v>89.294</v>
+        <v>58.474</v>
       </c>
       <c r="E2" t="n">
-        <v>1.92376</v>
+        <v>2.94401892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07711999999999999</v>
+        <v>0.11105262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07711999999999999</v>
+        <v>0.11105262</v>
       </c>
       <c r="H2" t="n">
-        <v>6.7946</v>
+        <v>6.373386700000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>7.853450028790495</v>
       </c>
       <c r="J2" t="n">
-        <v>11.28324</v>
+        <v>7.853450028790495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4102321740655048</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01794558243114963</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01794558243114963</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5277029664222589</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>58.474</v>
+        <v>89.294</v>
       </c>
       <c r="D3" t="n">
-        <v>58.474</v>
+        <v>89.294</v>
       </c>
       <c r="E3" t="n">
-        <v>2.94402</v>
+        <v>1.92376268</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11105</v>
+        <v>0.0771154</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11105</v>
+        <v>0.0771154</v>
       </c>
       <c r="H3" t="n">
-        <v>6.37339</v>
+        <v>6.7946048</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>11.29454281477518</v>
       </c>
       <c r="J3" t="n">
-        <v>7.84559</v>
+        <v>11.29454281477518</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2510555711216144</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01139126754987282</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01139126754987282</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6884050764772143</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>55.738</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1568</v>
+        <v>3.15679716</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18737</v>
+        <v>0.18737478</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09369</v>
+        <v>0.09368768</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54181</v>
+        <v>2.54180798</v>
       </c>
       <c r="I4" t="n">
+        <v>5.62995531008792</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.2718883481814</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6425648943227185</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03708545901958052</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01854280898212283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3899600541673622</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.62432</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>93.59399999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.85109</v>
+        <v>1.85109512</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12088</v>
+        <v>0.12088106</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06044</v>
+        <v>0.0604406</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82204</v>
+        <v>2.82203772</v>
       </c>
       <c r="I5" t="n">
+        <v>8.259225970225934</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.93476677143082</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2939831618564162</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0225175356088581</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01125874271021546</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3627017832494711</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.250959999999999</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +703,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.99987</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.396</v>
+        <v>14.672</v>
       </c>
       <c r="D6" t="n">
-        <v>93.756</v>
+        <v>58.636</v>
       </c>
       <c r="E6" t="n">
-        <v>1.85729</v>
+        <v>3.06949904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.16061</v>
+        <v>0.23585114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04015</v>
+        <v>0.05896272</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9933</v>
+        <v>0.84061064</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>3.768928979339171</v>
       </c>
       <c r="J6" t="n">
-        <v>5.09698</v>
+        <v>15.06909616794044</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7651823889608477</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06273600036649107</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01568396212496941</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2334679305626209</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -650,31 +750,46 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.99986666</v>
       </c>
       <c r="C7" t="n">
-        <v>14.672</v>
+        <v>25.396</v>
       </c>
       <c r="D7" t="n">
-        <v>58.636</v>
+        <v>93.756</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0695</v>
+        <v>1.85729004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.23585</v>
+        <v>0.1606103</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05896</v>
+        <v>0.04015258</v>
       </c>
       <c r="H7" t="n">
-        <v>0.84061</v>
+        <v>0.9932987799999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.102082564305087</v>
       </c>
       <c r="J7" t="n">
-        <v>3.76516</v>
+        <v>16.05066077838684</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3301926621223392</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0357451258853444</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.008936382411513601</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1877069815701375</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>56.366</v>
       </c>
       <c r="E8" t="n">
-        <v>3.17943</v>
+        <v>3.17942708</v>
       </c>
       <c r="F8" t="n">
-        <v>0.27246</v>
+        <v>0.27245646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04541</v>
+        <v>0.0454094</v>
       </c>
       <c r="H8" t="n">
-        <v>0.42008</v>
+        <v>0.42007648</v>
       </c>
       <c r="I8" t="n">
+        <v>2.364893537325892</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.1924944176699</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7595062307534944</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.08211807940031959</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01368627118238403</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1485822027200427</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.36253</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>88.31</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98433</v>
+        <v>1.98433102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17558</v>
+        <v>0.1755793</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02926</v>
+        <v>0.02926322</v>
       </c>
       <c r="H9" t="n">
-        <v>0.49156</v>
+        <v>0.4915637</v>
       </c>
       <c r="I9" t="n">
+        <v>4.356726538614116</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.6618466644168</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3854826833894694</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04469419442097462</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.007449003230624868</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1244192119679411</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.35237</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.476</v>
+        <v>6.93</v>
       </c>
       <c r="D10" t="n">
-        <v>83.83799999999999</v>
+        <v>55.316</v>
       </c>
       <c r="E10" t="n">
-        <v>2.09053</v>
+        <v>3.2261</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15166</v>
+        <v>0.24468378</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01896</v>
+        <v>0.03058538</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24757</v>
+        <v>0.21189334</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.68605621826269</v>
       </c>
       <c r="J10" t="n">
-        <v>3.81804</v>
+        <v>13.47364918813347</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.740832802649669</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08065316198257309</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01008205525336296</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.08795885177658991</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6.93</v>
+        <v>13.476</v>
       </c>
       <c r="D11" t="n">
-        <v>55.316</v>
+        <v>83.83799999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>3.2261</v>
+        <v>2.090531</v>
       </c>
       <c r="F11" t="n">
-        <v>0.24468</v>
+        <v>0.15165912</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03059</v>
+        <v>0.01895734</v>
       </c>
       <c r="H11" t="n">
-        <v>0.21189</v>
+        <v>0.24756714</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.821863063291135</v>
       </c>
       <c r="J11" t="n">
-        <v>1.68437</v>
+        <v>15.98094293445003</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.407137869147526</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.04116813671015452</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.005146037478279352</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.07564787741857845</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>56.6</v>
       </c>
       <c r="E12" t="n">
-        <v>3.1907</v>
+        <v>3.19069958</v>
       </c>
       <c r="F12" t="n">
-        <v>0.22061</v>
+        <v>0.22061486</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02206</v>
+        <v>0.02206134</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12887</v>
+        <v>0.12886902</v>
       </c>
       <c r="I12" t="n">
+        <v>1.54431662156933</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.32454512756361</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8121985443348584</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0773864654435651</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.007738704536303244</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.06717126594890077</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.54277</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>75.10599999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2.33057</v>
+        <v>2.33056984</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13877</v>
+        <v>0.13876628</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01388</v>
+        <v>0.01387668</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1439</v>
+        <v>0.143899</v>
       </c>
       <c r="I13" t="n">
+        <v>2.953141053889627</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13.95780802309658</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4479694552131678</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.04020351098040946</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.004020366609271584</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04769751945042264</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.95019</v>
       </c>
     </row>
   </sheetData>

--- a/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_500.xlsx
+++ b/results/new_cu_diffgoal_path/15x15/new_cu_diffgoal_path_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>0.99986666</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>25.396</v>
